--- a/data/hotels_by_city/Houston/Houston_shard_234.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_234.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="270">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g55609-d1595102-Reviews-Fairfield_Inn_Suites_Houston_Channelview-Channelview_Texas.html</t>
   </si>
   <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Fairfield-Inn-Suites-By-Marriott-Channelview.h3014642.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,684 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1595102-r473109187-Fairfield_Inn_Suites_Houston_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>55609</t>
+  </si>
+  <si>
+    <t>1595102</t>
+  </si>
+  <si>
+    <t>473109187</t>
+  </si>
+  <si>
+    <t>04/06/2017</t>
+  </si>
+  <si>
+    <t>Highway noise</t>
+  </si>
+  <si>
+    <t>Standard room and standard rather sparse Fairfield furnishings.  HBO and Cinemax channels is nice for varietyThe room I had was either poorly placed, poorly insulated or both as my intention of sleep was impossible due to the din of I-10. Triple glazed windows and other materials might have made a difference but they weren't used in my room. You'll be better off to stop earlier or later and get a better situated hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Arturo C, General Manager at Fairfield Inn &amp; Suites Houston Channelview, responded to this reviewResponded April 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 7, 2017</t>
+  </si>
+  <si>
+    <t>Standard room and standard rather sparse Fairfield furnishings.  HBO and Cinemax channels is nice for varietyThe room I had was either poorly placed, poorly insulated or both as my intention of sleep was impossible due to the din of I-10. Triple glazed windows and other materials might have made a difference but they weren't used in my room. You'll be better off to stop earlier or later and get a better situated hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1595102-r472767790-Fairfield_Inn_Suites_Houston_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>472767790</t>
+  </si>
+  <si>
+    <t>04/04/2017</t>
+  </si>
+  <si>
+    <t>Basketball Weekend</t>
+  </si>
+  <si>
+    <t>Spent one this past weekend. I had a room on the first floor. The king room was very spacious and the bed was super comfy. I was told that no one could see inside the room but I still would prefer to be able to close the curtains bc there was always light in the room. Not to mention i could see everybody walking by. There were plenty of plush pillows and there were a lot of movie channels to choose from. There was excellent water pressure and the water stayed very hot. There lemon hand lotion was the best. A minor complaint was that the toilet seat was off track bc every time we sat down it shifted and the vent did not work. Breakfast was your standard continental breakfast. If the hotel is crowded expect a long line for the waffles. The hotel is in a good location right off the highway and there is a McDonald and convenience store you can walk to if you're the walking type. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Arturo C, General Manager at Fairfield Inn &amp; Suites Houston Channelview, responded to this reviewResponded April 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 6, 2017</t>
+  </si>
+  <si>
+    <t>Spent one this past weekend. I had a room on the first floor. The king room was very spacious and the bed was super comfy. I was told that no one could see inside the room but I still would prefer to be able to close the curtains bc there was always light in the room. Not to mention i could see everybody walking by. There were plenty of plush pillows and there were a lot of movie channels to choose from. There was excellent water pressure and the water stayed very hot. There lemon hand lotion was the best. A minor complaint was that the toilet seat was off track bc every time we sat down it shifted and the vent did not work. Breakfast was your standard continental breakfast. If the hotel is crowded expect a long line for the waffles. The hotel is in a good location right off the highway and there is a McDonald and convenience store you can walk to if you're the walking type. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1595102-r454084379-Fairfield_Inn_Suites_Houston_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>454084379</t>
+  </si>
+  <si>
+    <t>01/22/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masonic Meeting </t>
+  </si>
+  <si>
+    <t>The front desk clerk was friendly and accommodating. The room was fairly comfortable.  Was good to have a working ac.   I had to go to another floor to find a working ice machine  (not the first hotel this has occurred).  MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Arturo C, General Manager at Fairfield Inn &amp; Suites Houston Channelview, responded to this reviewResponded January 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 25, 2017</t>
+  </si>
+  <si>
+    <t>The front desk clerk was friendly and accommodating. The room was fairly comfortable.  Was good to have a working ac.   I had to go to another floor to find a working ice machine  (not the first hotel this has occurred).  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1595102-r389860853-Fairfield_Inn_Suites_Houston_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>389860853</t>
+  </si>
+  <si>
+    <t>07/06/2016</t>
+  </si>
+  <si>
+    <t>Nice &amp; Clean hotel</t>
+  </si>
+  <si>
+    <t>Quick visit to the area for a funeral. We have never stayed at this hotel chain .  Several family &amp; friends staying here so we joined them. Hotel was very clean and staff all friendly and accommodating. Lobby was nice as we all gathered after the day's events to spent a bit more time together. Would definitely return .MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Arturo C, General Manager at Fairfield Inn &amp; Suites Houston Channelview, responded to this reviewResponded July 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 8, 2016</t>
+  </si>
+  <si>
+    <t>Quick visit to the area for a funeral. We have never stayed at this hotel chain .  Several family &amp; friends staying here so we joined them. Hotel was very clean and staff all friendly and accommodating. Lobby was nice as we all gathered after the day's events to spent a bit more time together. Would definitely return .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1595102-r368568297-Fairfield_Inn_Suites_Houston_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>368568297</t>
+  </si>
+  <si>
+    <t>04/28/2016</t>
+  </si>
+  <si>
+    <t>Outstanding</t>
+  </si>
+  <si>
+    <t>Had a minor issue with room at check in. Yesenia(?) happily moved us to another room without hesitation. She was very nice. Room was fabulous and very clean. Kudos to hsk. Bed was comfortable and I have a bad back so that was a relief. Breakfast was typical fare, area was clean, and stocked. I would stay again when in the area. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Arturo C, General Manager at Fairfield Inn &amp; Suites Houston Channelview, responded to this reviewResponded May 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 3, 2016</t>
+  </si>
+  <si>
+    <t>Had a minor issue with room at check in. Yesenia(?) happily moved us to another room without hesitation. She was very nice. Room was fabulous and very clean. Kudos to hsk. Bed was comfortable and I have a bad back so that was a relief. Breakfast was typical fare, area was clean, and stocked. I would stay again when in the area. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1595102-r368000728-Fairfield_Inn_Suites_Houston_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>368000728</t>
+  </si>
+  <si>
+    <t>04/26/2016</t>
+  </si>
+  <si>
+    <t>Awesome Hotel</t>
+  </si>
+  <si>
+    <t>Stayed with my family at this hotel for a few nights.We had a great experience! The hotel was clean inside and out. The room was neat with everything we needed. The beds and pillows were comfortable.The staff was friendly and helpful.The breakfast was also great! I have no complaints about this hotel!Totally recommend this place!MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed with my family at this hotel for a few nights.We had a great experience! The hotel was clean inside and out. The room was neat with everything we needed. The beds and pillows were comfortable.The staff was friendly and helpful.The breakfast was also great! I have no complaints about this hotel!Totally recommend this place!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1595102-r357302559-Fairfield_Inn_Suites_Houston_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>357302559</t>
+  </si>
+  <si>
+    <t>03/21/2016</t>
+  </si>
+  <si>
+    <t>Amazing Marriott Property.!!!</t>
+  </si>
+  <si>
+    <t>This is an amazing Marriott property near Houston Hobby airport. We visited in March with family to see Galveston . The hotel is really clean , lobby is superb , Carpets are really beautiful . Rooms are really good , we stayed in king suite which had all the amenities one expect. Breakfast buffet is good but if you are vegan . It's limited.Overall our stay was very good at this property . Really recommend this hotel to everyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Arturo C, General Manager at Fairfield Inn &amp; Suites Houston Channelview, responded to this reviewResponded March 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 29, 2016</t>
+  </si>
+  <si>
+    <t>This is an amazing Marriott property near Houston Hobby airport. We visited in March with family to see Galveston . The hotel is really clean , lobby is superb , Carpets are really beautiful . Rooms are really good , we stayed in king suite which had all the amenities one expect. Breakfast buffet is good but if you are vegan . It's limited.Overall our stay was very good at this property . Really recommend this hotel to everyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1595102-r324012130-Fairfield_Inn_Suites_Houston_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>324012130</t>
+  </si>
+  <si>
+    <t>11/02/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great place to stay!! </t>
+  </si>
+  <si>
+    <t>Great place to stay. It was our first time at a Fairfield Inn &amp; Suites. I was very pleased. We stayed 3 nights. We will defiantly be staying again. Perfect location close to family that lives just a few miles away! Very secure and safe environment. Easy on and off the east freeway! There was only one small issue. We had a stagnate smell at first in the room but  this cleared easily when the air was turned on. The beds were very comfortable with super soft down feather style pillows!! Super clean super comfortable!!! MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Arturo C, General Manager at Fairfield Inn &amp; Suites Houston Channelview, responded to this reviewResponded November 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 11, 2015</t>
+  </si>
+  <si>
+    <t>Great place to stay. It was our first time at a Fairfield Inn &amp; Suites. I was very pleased. We stayed 3 nights. We will defiantly be staying again. Perfect location close to family that lives just a few miles away! Very secure and safe environment. Easy on and off the east freeway! There was only one small issue. We had a stagnate smell at first in the room but  this cleared easily when the air was turned on. The beds were very comfortable with super soft down feather style pillows!! Super clean super comfortable!!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1595102-r324008523-Fairfield_Inn_Suites_Houston_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>324008523</t>
+  </si>
+  <si>
+    <t>Great Location, Even Better Staff</t>
+  </si>
+  <si>
+    <t>My father and I were traveling and needed a nice place to sleep.  We were greeted by a really friendly staff member when we arrived. She checked us in quickly even though we didn't have a reservation and sent us to our room.  The room was spotless and extremely clean bathroom, the temperature of the room was perfect when we arrived.  The next morning we were leaving early and a male staff member put out the breakfast food for us early to accommodate our early departure.  My dad commented in the vehicle, those were the nicest people I've ever met at that hotel, someone trained them right.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>My father and I were traveling and needed a nice place to sleep.  We were greeted by a really friendly staff member when we arrived. She checked us in quickly even though we didn't have a reservation and sent us to our room.  The room was spotless and extremely clean bathroom, the temperature of the room was perfect when we arrived.  The next morning we were leaving early and a male staff member put out the breakfast food for us early to accommodate our early departure.  My dad commented in the vehicle, those were the nicest people I've ever met at that hotel, someone trained them right.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1595102-r292435998-Fairfield_Inn_Suites_Houston_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>292435998</t>
+  </si>
+  <si>
+    <t>07/25/2015</t>
+  </si>
+  <si>
+    <t>Ok hotel, but nothing special</t>
+  </si>
+  <si>
+    <t>Located next to i10 it was noisy, but the room was clean and the bed was okThey had happy hour with some free drinks in the evening, that was nice, and the reception was friendly and helpfulThe area was boring, but many fast food places nearbyPool was ok, small but cleanMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Arturo C, General Manager at Fairfield Inn &amp; Suites Houston Channelview, responded to this reviewResponded July 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 26, 2015</t>
+  </si>
+  <si>
+    <t>Located next to i10 it was noisy, but the room was clean and the bed was okThey had happy hour with some free drinks in the evening, that was nice, and the reception was friendly and helpfulThe area was boring, but many fast food places nearbyPool was ok, small but cleanMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1595102-r286209035-Fairfield_Inn_Suites_Houston_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>286209035</t>
+  </si>
+  <si>
+    <t>07/06/2015</t>
+  </si>
+  <si>
+    <t>Saved my trip</t>
+  </si>
+  <si>
+    <t>Great place to stay, and location was great. The Breakfast  was good loved it and fresh fruit, clean area. The room was clean and fresh, bathroom clean. The front desk clerks were great and off the chain happy, loved the spirit. Thanks to them for saving my weekend. Take a lession from ((Channelview, a great location). Fairfield Inn &amp; Suites Houston Hobby Airport ( this Hobby location really can learn fron the staff at Channelview.) Make sure you check your reverasation at Hobby before you go........MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Arturo C, General Manager at Fairfield Inn &amp; Suites Houston Channelview, responded to this reviewResponded July 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 8, 2015</t>
+  </si>
+  <si>
+    <t>Great place to stay, and location was great. The Breakfast  was good loved it and fresh fruit, clean area. The room was clean and fresh, bathroom clean. The front desk clerks were great and off the chain happy, loved the spirit. Thanks to them for saving my weekend. Take a lession from ((Channelview, a great location). Fairfield Inn &amp; Suites Houston Hobby Airport ( this Hobby location really can learn fron the staff at Channelview.) Make sure you check your reverasation at Hobby before you go........More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1595102-r282417235-Fairfield_Inn_Suites_Houston_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>282417235</t>
+  </si>
+  <si>
+    <t>06/23/2015</t>
+  </si>
+  <si>
+    <t>Great spot if you have business in this area</t>
+  </si>
+  <si>
+    <t>Had to be at a customer site for several days, which was about 1.5 miles from the hotel.  Checked in during Tropical Storm Bill and enjoyed it for essentially the entire stay, which left little time to explore the area.  That said, on two lunch drives nearby it was pretty apparent this was easily the BEST hotel choice in this area!  And given the storm, it was VERY nice to have the evening reception to fall back on for dinner!My room was very spacious and clean, and the halls and lobby were equally well-maintained.  ALL staff I interacted with were extremely pleasant.  If business opportunity goes well, I'll be back again, and won't hesitate to stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Arturo C, General Manager at Fairfield Inn &amp; Suites Houston Channelview, responded to this reviewResponded June 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 25, 2015</t>
+  </si>
+  <si>
+    <t>Had to be at a customer site for several days, which was about 1.5 miles from the hotel.  Checked in during Tropical Storm Bill and enjoyed it for essentially the entire stay, which left little time to explore the area.  That said, on two lunch drives nearby it was pretty apparent this was easily the BEST hotel choice in this area!  And given the storm, it was VERY nice to have the evening reception to fall back on for dinner!My room was very spacious and clean, and the halls and lobby were equally well-maintained.  ALL staff I interacted with were extremely pleasant.  If business opportunity goes well, I'll be back again, and won't hesitate to stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1595102-r263077612-Fairfield_Inn_Suites_Houston_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>263077612</t>
+  </si>
+  <si>
+    <t>04/01/2015</t>
+  </si>
+  <si>
+    <t>It's Ok</t>
+  </si>
+  <si>
+    <t>This hotel offers a fair location right off the highway.  Nightly security as with most of the Houston hotels.  Offers a reception. I checked in at 3am. While doing so I was told they don't offer complimentary goodie bags for gold or higher members and those bags are made up per location.  Not true from what I've experienced at every other Marriott property. Breakfast is not long enough and both opens to late and closes too early. As with many of the area hotels breakfast hours are poor. 630am to 9am mf 7am to 930am sat sun. Most other chains outside this area offer 6am to 10 and 630am to 10 weekends. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Arturo C, General Manager at Fairfield Inn &amp; Suites Houston Channelview, responded to this reviewResponded April 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 3, 2015</t>
+  </si>
+  <si>
+    <t>This hotel offers a fair location right off the highway.  Nightly security as with most of the Houston hotels.  Offers a reception. I checked in at 3am. While doing so I was told they don't offer complimentary goodie bags for gold or higher members and those bags are made up per location.  Not true from what I've experienced at every other Marriott property. Breakfast is not long enough and both opens to late and closes too early. As with many of the area hotels breakfast hours are poor. 630am to 9am mf 7am to 930am sat sun. Most other chains outside this area offer 6am to 10 and 630am to 10 weekends. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1595102-r256977375-Fairfield_Inn_Suites_Houston_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>256977375</t>
+  </si>
+  <si>
+    <t>02/28/2015</t>
+  </si>
+  <si>
+    <t>Very Impressed With My First Stay At a Fairfield Inn</t>
+  </si>
+  <si>
+    <t>Had previously at another well-known hotel in the area but on this trip the hotel reservation was made by my client and I'm glad it was such a pleasant experience.In fact, will try to stay here again if they send me back to Channelview this year.Perfect for business or family travel, although there's nothing in the immediate area to attract a family visit.Very conveniently located next to Interstate with quick access, although driving out for dinner can be challenging if you're not accustomed to the heavy &amp; fast-paced Houston area Interstate traffic and somewhat confusing service roads that often run parallel to the Interstate for several miles with busy intersections along the way.Complimentary breakfast was top notch.I was impressed enough to sign up to the Marriott repeat customer award program for future stays at Marriott properties.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Arturo C, Manager at Fairfield Inn &amp; Suites Houston Channelview, responded to this reviewResponded March 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 2, 2015</t>
+  </si>
+  <si>
+    <t>Had previously at another well-known hotel in the area but on this trip the hotel reservation was made by my client and I'm glad it was such a pleasant experience.In fact, will try to stay here again if they send me back to Channelview this year.Perfect for business or family travel, although there's nothing in the immediate area to attract a family visit.Very conveniently located next to Interstate with quick access, although driving out for dinner can be challenging if you're not accustomed to the heavy &amp; fast-paced Houston area Interstate traffic and somewhat confusing service roads that often run parallel to the Interstate for several miles with busy intersections along the way.Complimentary breakfast was top notch.I was impressed enough to sign up to the Marriott repeat customer award program for future stays at Marriott properties.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1595102-r255820243-Fairfield_Inn_Suites_Houston_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>255820243</t>
+  </si>
+  <si>
+    <t>02/22/2015</t>
+  </si>
+  <si>
+    <t>Good hotel</t>
+  </si>
+  <si>
+    <t>Had to stay here for a business trip.  Very good hotel.  Rooms were clean as was the whole hotel.  Breakfast was served promptly at 6 am every morning and there was a wide selection of both hot and cold foods.  The staff was always friendly and professional.  There is a small exercise room- two treadmills, one elliptical and some free weights &amp; bench.  Small pool which would probably get crowded given its size vs. the capacity of the hotel.  I would definitely stay there again.  In fact I probably will be in a couple of weeks!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Arturo C, General Manager at Fairfield Inn &amp; Suites Houston Channelview, responded to this reviewResponded February 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 26, 2015</t>
+  </si>
+  <si>
+    <t>Had to stay here for a business trip.  Very good hotel.  Rooms were clean as was the whole hotel.  Breakfast was served promptly at 6 am every morning and there was a wide selection of both hot and cold foods.  The staff was always friendly and professional.  There is a small exercise room- two treadmills, one elliptical and some free weights &amp; bench.  Small pool which would probably get crowded given its size vs. the capacity of the hotel.  I would definitely stay there again.  In fact I probably will be in a couple of weeks!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1595102-r211580511-Fairfield_Inn_Suites_Houston_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>211580511</t>
+  </si>
+  <si>
+    <t>06/22/2014</t>
+  </si>
+  <si>
+    <t>Awesome Experiences -- Our "go to" stay when in eastern Houston.</t>
+  </si>
+  <si>
+    <t>After four or five stays at Fairfield Inn-Channelview in past year and a half, we've grown spoiled to the services and staff at this location.  Traveling 25%  of the year for my work, I appreciate their attention to detail, from the warm welcome from Sandra or other staff at the front desk, clean (odorless) rooms, comfortable beds and linens, good breakfasts, nice, clean pool, and all staff that go above/beyond to make a traveler's experience pleasant and enjoyable.  While other posts may state the area is not the best of locations, the wife and I feel very safe on this property and will continue to make this our first choice when we're in the area....Richard/Sue M.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Arturo C, General Manager at Fairfield Inn &amp; Suites Houston Channelview, responded to this reviewResponded June 26, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 26, 2014</t>
+  </si>
+  <si>
+    <t>After four or five stays at Fairfield Inn-Channelview in past year and a half, we've grown spoiled to the services and staff at this location.  Traveling 25%  of the year for my work, I appreciate their attention to detail, from the warm welcome from Sandra or other staff at the front desk, clean (odorless) rooms, comfortable beds and linens, good breakfasts, nice, clean pool, and all staff that go above/beyond to make a traveler's experience pleasant and enjoyable.  While other posts may state the area is not the best of locations, the wife and I feel very safe on this property and will continue to make this our first choice when we're in the area....Richard/Sue M.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1595102-r206180308-Fairfield_Inn_Suites_Houston_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>206180308</t>
+  </si>
+  <si>
+    <t>05/19/2014</t>
+  </si>
+  <si>
+    <t>They saved my trip</t>
+  </si>
+  <si>
+    <t>Last week I went to Houston to attend Microsoft TechEd 2014. My company put us up in another hotel for the week. After 1 night my back ached from the rock hard bed, my clothes stank from the stale smoke in the room, and I had 4 bites on me.  I was ready to skip the conference and go home but I found this hotel and they made everything better. I called the Marriott reservation line and they got me a room here at the Fairfield. Upon arrival the clean lobby immediately put me at ease.  The friendly reception made it even better. Then when I got to the well appointed, spotless room and took a hot shower, I knew that the week was saved. This is a newer property and the staff shows a lot of pride in maintaining it. I know where I'll stay if I ever go back to Houston. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>Arturo C, General Manager at Fairfield Inn &amp; Suites Houston Channelview, responded to this reviewResponded May 20, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 20, 2014</t>
+  </si>
+  <si>
+    <t>Last week I went to Houston to attend Microsoft TechEd 2014. My company put us up in another hotel for the week. After 1 night my back ached from the rock hard bed, my clothes stank from the stale smoke in the room, and I had 4 bites on me.  I was ready to skip the conference and go home but I found this hotel and they made everything better. I called the Marriott reservation line and they got me a room here at the Fairfield. Upon arrival the clean lobby immediately put me at ease.  The friendly reception made it even better. Then when I got to the well appointed, spotless room and took a hot shower, I knew that the week was saved. This is a newer property and the staff shows a lot of pride in maintaining it. I know where I'll stay if I ever go back to Houston. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1595102-r204679391-Fairfield_Inn_Suites_Houston_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>204679391</t>
+  </si>
+  <si>
+    <t>05/08/2014</t>
+  </si>
+  <si>
+    <t>Nice Hotel- Bad Location</t>
+  </si>
+  <si>
+    <t>This is a nice clean hotel, but is not in the best neighborhood nor near any restaurants other than a few run down fast food restaurants. We would not really recommend this location based on the above. This is not a location where you can feel comfortable leaving your car parked in the parking lot overnight.MoreShow less</t>
+  </si>
+  <si>
+    <t>Arturo C, General Manager at Fairfield Inn &amp; Suites Houston Channelview, responded to this reviewResponded May 12, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 12, 2014</t>
+  </si>
+  <si>
+    <t>This is a nice clean hotel, but is not in the best neighborhood nor near any restaurants other than a few run down fast food restaurants. We would not really recommend this location based on the above. This is not a location where you can feel comfortable leaving your car parked in the parking lot overnight.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1595102-r186093351-Fairfield_Inn_Suites_Houston_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>186093351</t>
+  </si>
+  <si>
+    <t>11/27/2013</t>
+  </si>
+  <si>
+    <t>2 Thumbs up</t>
+  </si>
+  <si>
+    <t>My stay here was just amazing starting at check-in. Great service at the front desk the manager was very nice and very attentive. Rooms were very clean and the beds were very comfy. I will definitely be staying here again on my next visit.MoreShow less</t>
+  </si>
+  <si>
+    <t>Arturo C, General Manager at Fairfield Inn &amp; Suites Houston Channelview, responded to this reviewResponded November 29, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 29, 2013</t>
+  </si>
+  <si>
+    <t>My stay here was just amazing starting at check-in. Great service at the front desk the manager was very nice and very attentive. Rooms were very clean and the beds were very comfy. I will definitely be staying here again on my next visit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1595102-r179823567-Fairfield_Inn_Suites_Houston_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>179823567</t>
+  </si>
+  <si>
+    <t>10/05/2013</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>This was the first time I had stayed at this hotel. It is off the highway, but the traffic noise is not bad. The rooms are super big, in fact I have never stayed at a hotel that  had these big of rooms. They have a complimentary breakfast and its good. They have lemonade and chips in the lobby when you check in. They are very friendly here!  The lobby and breakfast areas are very clean and very nicely decorated. They have a nice pool, although I didn't use it. Beds are very very comfortable and I have a bad back. I usually have to have an egg crate mattress when I stay at a hotel but not with this one. There I'd a frig. And microwave in the rooms. They have vending machines in the lobby area . Stay here!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>Arturo C, Manager at Fairfield Inn &amp; Suites Houston Channelview, responded to this reviewResponded October 16, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 16, 2013</t>
+  </si>
+  <si>
+    <t>This was the first time I had stayed at this hotel. It is off the highway, but the traffic noise is not bad. The rooms are super big, in fact I have never stayed at a hotel that  had these big of rooms. They have a complimentary breakfast and its good. They have lemonade and chips in the lobby when you check in. They are very friendly here!  The lobby and breakfast areas are very clean and very nicely decorated. They have a nice pool, although I didn't use it. Beds are very very comfortable and I have a bad back. I usually have to have an egg crate mattress when I stay at a hotel but not with this one. There I'd a frig. And microwave in the rooms. They have vending machines in the lobby area . Stay here!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1595102-r174817273-Fairfield_Inn_Suites_Houston_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>174817273</t>
+  </si>
+  <si>
+    <t>08/30/2013</t>
+  </si>
+  <si>
+    <t>Super Nice</t>
+  </si>
+  <si>
+    <t>All I can say is you can't go wrong..the location is great..plenty of shopping and restaurants close by..right next to highway..but it didn't bother us at all..we slept well ..no noise..it is beautifully decorated and super clean..the rooms are also well decorated and spacious..free breakfast is a plus and it has something for everyone..totally recommend..MoreShow less</t>
+  </si>
+  <si>
+    <t>Arturo C, General Manager at Fairfield Inn &amp; Suites Houston Channelview, responded to this reviewResponded September 10, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 10, 2013</t>
+  </si>
+  <si>
+    <t>All I can say is you can't go wrong..the location is great..plenty of shopping and restaurants close by..right next to highway..but it didn't bother us at all..we slept well ..no noise..it is beautifully decorated and super clean..the rooms are also well decorated and spacious..free breakfast is a plus and it has something for everyone..totally recommend..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1595102-r142410912-Fairfield_Inn_Suites_Houston_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>142410912</t>
+  </si>
+  <si>
+    <t>10/09/2012</t>
+  </si>
+  <si>
+    <t>Nicely updated, but RIGHT next to the highway</t>
+  </si>
+  <si>
+    <t>I'd actually like to rate this hotel as 3.5 - it's better than average, but there were some definite downsides to the hotel. We stayed at this hotel for one night during a cross-country road trip. We arrived very late due to some heavy traffic/construction near Beaumont, TX. On the upside: the whole hotel had been recently updated and our room was very nice - plenty of room for the two of us. The breakfast was good and the free wireless internet was much appreciated! On the downside: The value was not quite as good as we found at some other hotels that we stayed at during our road tip, but the price was not unreasonable. From other reviews on Trip Advisor, we were prepared to hear noise from the highway in our room. The noise was actually pretty loud, not just in the mornings. I think the hotel did provide two sets of earplugs in the room, but it was pretty noisy. Despite the fact that this hotel is located right next to the highway, it was a little awkward to get to the hotel after exiting the highway and then to get back on the highway on the way out. The room was perfectly fine for one night, but we would recommend requesting a room on the side of the hotel opposite of the highway.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>I'd actually like to rate this hotel as 3.5 - it's better than average, but there were some definite downsides to the hotel. We stayed at this hotel for one night during a cross-country road trip. We arrived very late due to some heavy traffic/construction near Beaumont, TX. On the upside: the whole hotel had been recently updated and our room was very nice - plenty of room for the two of us. The breakfast was good and the free wireless internet was much appreciated! On the downside: The value was not quite as good as we found at some other hotels that we stayed at during our road tip, but the price was not unreasonable. From other reviews on Trip Advisor, we were prepared to hear noise from the highway in our room. The noise was actually pretty loud, not just in the mornings. I think the hotel did provide two sets of earplugs in the room, but it was pretty noisy. Despite the fact that this hotel is located right next to the highway, it was a little awkward to get to the hotel after exiting the highway and then to get back on the highway on the way out. The room was perfectly fine for one night, but we would recommend requesting a room on the side of the hotel opposite of the highway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1595102-r123404421-Fairfield_Inn_Suites_Houston_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>123404421</t>
+  </si>
+  <si>
+    <t>01/21/2012</t>
+  </si>
+  <si>
+    <t>Very nice hotel- need a little tweeking</t>
+  </si>
+  <si>
+    <t>This was a very nice hotel and conveniently located right off of I-10 on the east side of Houston.  The decor was simple, but nice. The room was spacious and the hotel upgraded us to a suite because they ran out of rooms. The staff was excellent- friendly and efficient. The room was clean, spacious and had a lot of nice amenities. There were two faults that I noticed- one is that  in the morning, you could hear the traffic very clearly (it was like the window was open, even though it wasn't) and if you didn't get to the breakfast early, they ran out. I grabbed two breakfast sandwiches for my traveling party because some of them hadn't made it down stairs and the other people were ransacking the food like they weren't going to eat again for a week.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>This was a very nice hotel and conveniently located right off of I-10 on the east side of Houston.  The decor was simple, but nice. The room was spacious and the hotel upgraded us to a suite because they ran out of rooms. The staff was excellent- friendly and efficient. The room was clean, spacious and had a lot of nice amenities. There were two faults that I noticed- one is that  in the morning, you could hear the traffic very clearly (it was like the window was open, even though it wasn't) and if you didn't get to the breakfast early, they ran out. I grabbed two breakfast sandwiches for my traveling party because some of them hadn't made it down stairs and the other people were ransacking the food like they weren't going to eat again for a week.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1595102-r120663054-Fairfield_Inn_Suites_Houston_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>120663054</t>
+  </si>
+  <si>
+    <t>11/16/2011</t>
+  </si>
+  <si>
+    <t>Second stay just as impressive</t>
+  </si>
+  <si>
+    <t>We first stayed here about a couple of years ago and it seemed the hotel wasbrand new then.  We are very impressed with the maintenance of  the property and the friendly, welcoming staff.  The hotel is not located in an attractive area, but I'm sure it's in a strategic place for the owners or they would not have built it here.  It is very convenient for us when visiting relatives about 3 miles away.We stayed on a Saturday night in November and there were very few guests, so that worked to our favor as far as having a quiet stay.  The rooms are very attractive and huge, clean, great bedding, and a very nice breakfast.  You will not be disappointed.The only suggestion I would have for management is to place a bell on the front desk ...soguests can summon a clerk from the back area.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>We first stayed here about a couple of years ago and it seemed the hotel wasbrand new then.  We are very impressed with the maintenance of  the property and the friendly, welcoming staff.  The hotel is not located in an attractive area, but I'm sure it's in a strategic place for the owners or they would not have built it here.  It is very convenient for us when visiting relatives about 3 miles away.We stayed on a Saturday night in November and there were very few guests, so that worked to our favor as far as having a quiet stay.  The rooms are very attractive and huge, clean, great bedding, and a very nice breakfast.  You will not be disappointed.The only suggestion I would have for management is to place a bell on the front desk ...soguests can summon a clerk from the back area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1595102-r116002166-Fairfield_Inn_Suites_Houston_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>116002166</t>
+  </si>
+  <si>
+    <t>07/29/2011</t>
+  </si>
+  <si>
+    <t>Awesome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This hotel is really nice! All the staff are kind! Love the many choices of breakfast menu! My room was very clean! I definitely recommend this hotel to everyone! I would love to stay again in this hotel! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1595102-r79414722-Fairfield_Inn_Suites_Houston_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>79414722</t>
+  </si>
+  <si>
+    <t>09/13/2010</t>
+  </si>
+  <si>
+    <t>Fabulous Hotel</t>
+  </si>
+  <si>
+    <t>Our stay at the Fairfield Inn in Channelview was wonderful. The room was spacious, sparkling clean, and well equiped - (microwave, fridge, coffee pot, lots of lamps, great flat screen TV, good air conditioner) - the bed was very comfortable with lots of pillows. The bath area was roomie - lots of counter space and plenty of towels.Joel at the front desk was friendly, helpful, and went out of his way to make us feel welcome.The breakfast area was better than any hotel I've stayed in - lots of choices in food and a wonderful, warmly smiling attendant that kept everything clean, stocked, and ready for us. Would I stay there again? I would indeed!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2010</t>
+  </si>
+  <si>
+    <t>Our stay at the Fairfield Inn in Channelview was wonderful. The room was spacious, sparkling clean, and well equiped - (microwave, fridge, coffee pot, lots of lamps, great flat screen TV, good air conditioner) - the bed was very comfortable with lots of pillows. The bath area was roomie - lots of counter space and plenty of towels.Joel at the front desk was friendly, helpful, and went out of his way to make us feel welcome.The breakfast area was better than any hotel I've stayed in - lots of choices in food and a wonderful, warmly smiling attendant that kept everything clean, stocked, and ready for us. Would I stay there again? I would indeed!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1595102-r61316914-Fairfield_Inn_Suites_Houston_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>61316914</t>
+  </si>
+  <si>
+    <t>04/14/2010</t>
+  </si>
+  <si>
+    <t>This Hotel is doing everything right!</t>
+  </si>
+  <si>
+    <t>My husband and I and our two adult children along with two other friends stayed at this location while we enjoyed a weekend of racing. We went to Baytown for the NHRA dragraces on Friday and Sunday and to The Supercross in the Reliant Stadium on Saturday. This Fairfield was conveniently located for both venues. Not to mention it was a beautiful brand new hotel...The entire hotel is furnished with modern beautiful furnishings and decor. The breakfast each morning has a large variety of items in a wonderful breakfast area..there  was a sweet staff member there to greet you and attend to any needs you might have. The rooms were HUGE!!! The bedding and beds were awesome, let me just say that it is a rare find to lay down on sheets that smell of perfumed fabric softner!n The bathroom was clean and stocked with the extra towels we had requested our room also the extra feather pillows on the beds we had asked for as well.The staff was extremely curteous and genuinely nice and professional. I would stay at this hotel again and again...I hope they can continue with the fine service and housekeeping they have now well into the future, if so travelers will always be please with this hotel!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2010</t>
+  </si>
+  <si>
+    <t>My husband and I and our two adult children along with two other friends stayed at this location while we enjoyed a weekend of racing. We went to Baytown for the NHRA dragraces on Friday and Sunday and to The Supercross in the Reliant Stadium on Saturday. This Fairfield was conveniently located for both venues. Not to mention it was a beautiful brand new hotel...The entire hotel is furnished with modern beautiful furnishings and decor. The breakfast each morning has a large variety of items in a wonderful breakfast area..there  was a sweet staff member there to greet you and attend to any needs you might have. The rooms were HUGE!!! The bedding and beds were awesome, let me just say that it is a rare find to lay down on sheets that smell of perfumed fabric softner!n The bathroom was clean and stocked with the extra towels we had requested our room also the extra feather pillows on the beds we had asked for as well.The staff was extremely curteous and genuinely nice and professional. I would stay at this hotel again and again...I hope they can continue with the fine service and housekeeping they have now well into the future, if so travelers will always be please with this hotel!!!!More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1219,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1251,1836 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>60366</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>3</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>60366</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>60366</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" t="s">
+        <v>72</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>60366</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>81</v>
+      </c>
+      <c r="O5" t="s">
+        <v>62</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>82</v>
+      </c>
+      <c r="X5" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>60366</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>90</v>
+      </c>
+      <c r="O6" t="s">
+        <v>91</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>92</v>
+      </c>
+      <c r="X6" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>60366</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>96</v>
+      </c>
+      <c r="J7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L7" t="s">
+        <v>99</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>90</v>
+      </c>
+      <c r="O7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>92</v>
+      </c>
+      <c r="X7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>60366</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" t="s">
+        <v>104</v>
+      </c>
+      <c r="L8" t="s">
+        <v>105</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>106</v>
+      </c>
+      <c r="O8" t="s">
+        <v>62</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>107</v>
+      </c>
+      <c r="X8" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>60366</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J9" t="s">
+        <v>112</v>
+      </c>
+      <c r="K9" t="s">
+        <v>113</v>
+      </c>
+      <c r="L9" t="s">
+        <v>114</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>115</v>
+      </c>
+      <c r="O9" t="s">
+        <v>62</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>116</v>
+      </c>
+      <c r="X9" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>60366</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>120</v>
+      </c>
+      <c r="J10" t="s">
+        <v>112</v>
+      </c>
+      <c r="K10" t="s">
+        <v>121</v>
+      </c>
+      <c r="L10" t="s">
+        <v>122</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>123</v>
+      </c>
+      <c r="O10" t="s">
+        <v>72</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>116</v>
+      </c>
+      <c r="X10" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>60366</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>125</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>126</v>
+      </c>
+      <c r="J11" t="s">
+        <v>127</v>
+      </c>
+      <c r="K11" t="s">
+        <v>128</v>
+      </c>
+      <c r="L11" t="s">
+        <v>129</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>130</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>131</v>
+      </c>
+      <c r="X11" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>60366</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>134</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>135</v>
+      </c>
+      <c r="J12" t="s">
+        <v>136</v>
+      </c>
+      <c r="K12" t="s">
+        <v>137</v>
+      </c>
+      <c r="L12" t="s">
+        <v>138</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>130</v>
+      </c>
+      <c r="O12" t="s">
+        <v>139</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>140</v>
+      </c>
+      <c r="X12" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>60366</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>143</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>144</v>
+      </c>
+      <c r="J13" t="s">
+        <v>145</v>
+      </c>
+      <c r="K13" t="s">
+        <v>146</v>
+      </c>
+      <c r="L13" t="s">
+        <v>147</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>148</v>
+      </c>
+      <c r="O13" t="s">
+        <v>139</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>149</v>
+      </c>
+      <c r="X13" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>60366</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>152</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>153</v>
+      </c>
+      <c r="J14" t="s">
+        <v>154</v>
+      </c>
+      <c r="K14" t="s">
+        <v>155</v>
+      </c>
+      <c r="L14" t="s">
+        <v>156</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>157</v>
+      </c>
+      <c r="O14" t="s">
+        <v>139</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>158</v>
+      </c>
+      <c r="X14" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>60366</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>161</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>162</v>
+      </c>
+      <c r="J15" t="s">
+        <v>163</v>
+      </c>
+      <c r="K15" t="s">
+        <v>164</v>
+      </c>
+      <c r="L15" t="s">
+        <v>165</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>166</v>
+      </c>
+      <c r="O15" t="s">
+        <v>139</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>167</v>
+      </c>
+      <c r="X15" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>60366</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>170</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>171</v>
+      </c>
+      <c r="J16" t="s">
+        <v>172</v>
+      </c>
+      <c r="K16" t="s">
+        <v>173</v>
+      </c>
+      <c r="L16" t="s">
+        <v>174</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>175</v>
+      </c>
+      <c r="O16" t="s">
+        <v>139</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>176</v>
+      </c>
+      <c r="X16" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>60366</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>179</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>180</v>
+      </c>
+      <c r="J17" t="s">
+        <v>181</v>
+      </c>
+      <c r="K17" t="s">
+        <v>182</v>
+      </c>
+      <c r="L17" t="s">
+        <v>183</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>184</v>
+      </c>
+      <c r="O17" t="s">
+        <v>91</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>185</v>
+      </c>
+      <c r="X17" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>60366</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>188</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>189</v>
+      </c>
+      <c r="J18" t="s">
+        <v>190</v>
+      </c>
+      <c r="K18" t="s">
+        <v>191</v>
+      </c>
+      <c r="L18" t="s">
+        <v>192</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>193</v>
+      </c>
+      <c r="O18" t="s">
+        <v>139</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>194</v>
+      </c>
+      <c r="X18" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>60366</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>197</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>198</v>
+      </c>
+      <c r="J19" t="s">
+        <v>199</v>
+      </c>
+      <c r="K19" t="s">
+        <v>200</v>
+      </c>
+      <c r="L19" t="s">
+        <v>201</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="s">
+        <v>193</v>
+      </c>
+      <c r="O19" t="s">
+        <v>91</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>3</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>202</v>
+      </c>
+      <c r="X19" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>60366</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>205</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>206</v>
+      </c>
+      <c r="J20" t="s">
+        <v>207</v>
+      </c>
+      <c r="K20" t="s">
+        <v>208</v>
+      </c>
+      <c r="L20" t="s">
+        <v>209</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s"/>
+      <c r="O20" t="s"/>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>210</v>
+      </c>
+      <c r="X20" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>60366</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>213</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>214</v>
+      </c>
+      <c r="J21" t="s">
+        <v>215</v>
+      </c>
+      <c r="K21" t="s">
+        <v>216</v>
+      </c>
+      <c r="L21" t="s">
+        <v>217</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>218</v>
+      </c>
+      <c r="O21" t="s">
+        <v>72</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>219</v>
+      </c>
+      <c r="X21" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>60366</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>222</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>223</v>
+      </c>
+      <c r="J22" t="s">
+        <v>224</v>
+      </c>
+      <c r="K22" t="s">
+        <v>225</v>
+      </c>
+      <c r="L22" t="s">
+        <v>226</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s"/>
+      <c r="O22" t="s"/>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>227</v>
+      </c>
+      <c r="X22" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>60366</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>230</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>231</v>
+      </c>
+      <c r="J23" t="s">
+        <v>232</v>
+      </c>
+      <c r="K23" t="s">
+        <v>233</v>
+      </c>
+      <c r="L23" t="s">
+        <v>234</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>235</v>
+      </c>
+      <c r="O23" t="s">
+        <v>91</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>60366</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>237</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>238</v>
+      </c>
+      <c r="J24" t="s">
+        <v>239</v>
+      </c>
+      <c r="K24" t="s">
+        <v>240</v>
+      </c>
+      <c r="L24" t="s">
+        <v>241</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>242</v>
+      </c>
+      <c r="O24" t="s">
+        <v>139</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>60366</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>244</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>245</v>
+      </c>
+      <c r="J25" t="s">
+        <v>246</v>
+      </c>
+      <c r="K25" t="s">
+        <v>247</v>
+      </c>
+      <c r="L25" t="s">
+        <v>248</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>249</v>
+      </c>
+      <c r="O25" t="s">
+        <v>91</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>2</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>60366</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>251</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>252</v>
+      </c>
+      <c r="J26" t="s">
+        <v>253</v>
+      </c>
+      <c r="K26" t="s">
+        <v>254</v>
+      </c>
+      <c r="L26" t="s">
+        <v>255</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s"/>
+      <c r="O26" t="s"/>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>60366</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>256</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>257</v>
+      </c>
+      <c r="J27" t="s">
+        <v>258</v>
+      </c>
+      <c r="K27" t="s">
+        <v>259</v>
+      </c>
+      <c r="L27" t="s">
+        <v>260</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>261</v>
+      </c>
+      <c r="O27" t="s">
+        <v>139</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>60366</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>263</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>264</v>
+      </c>
+      <c r="J28" t="s">
+        <v>265</v>
+      </c>
+      <c r="K28" t="s">
+        <v>266</v>
+      </c>
+      <c r="L28" t="s">
+        <v>267</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>268</v>
+      </c>
+      <c r="O28" t="s">
+        <v>62</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_234.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_234.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="413">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,78 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/09/2018</t>
+    <t>09/05/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1595102-r545355339-Fairfield_Inn_Suites_Houston_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>55609</t>
+  </si>
+  <si>
+    <t>1595102</t>
+  </si>
+  <si>
+    <t>545355339</t>
+  </si>
+  <si>
+    <t>12/05/2017</t>
+  </si>
+  <si>
+    <t>Easy access if heading east on I-10</t>
+  </si>
+  <si>
+    <t>Kind of funny since there’s definitely no view of a channel from this hotel, but it it well run with a very helpful desk clerk (Jay) who did his best to find us a quiet room. The hotel could not be easier to access and sits almost like a pit stop off I-10 on the east side of Houston. The rooms are clean, lobby, and halls well cared for. The parking lot and overflowing outside trash cans needed attention and the fire exit stair from the third floor was uneven, a code violation in Florida, but I guess just a hazard in Texas. Either way, watch the first step down from the third floor it could be killer in an emergency. For some reason the room thermostat was locked on 67, so we had to rig a cover to block some of the air. Breakfast was the usual fare, though for the first time we saw a rather soiled sign taped to the wall to stop guest from returning to their rooms with food – even though they only used paper plates and plastic. Unusual, since many hotels have trays for this purpose and they use ceramic and metal utensils. All in all the hotel is exactly what one would expect from a good roadside hotel, nothing outstanding, but nothing to unexpected either.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Arturo C, General Manager at Fairfield Inn &amp; Suites Houston Channelview, responded to this reviewResponded December 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 27, 2017</t>
+  </si>
+  <si>
+    <t>Kind of funny since there’s definitely no view of a channel from this hotel, but it it well run with a very helpful desk clerk (Jay) who did his best to find us a quiet room. The hotel could not be easier to access and sits almost like a pit stop off I-10 on the east side of Houston. The rooms are clean, lobby, and halls well cared for. The parking lot and overflowing outside trash cans needed attention and the fire exit stair from the third floor was uneven, a code violation in Florida, but I guess just a hazard in Texas. Either way, watch the first step down from the third floor it could be killer in an emergency. For some reason the room thermostat was locked on 67, so we had to rig a cover to block some of the air. Breakfast was the usual fare, though for the first time we saw a rather soiled sign taped to the wall to stop guest from returning to their rooms with food – even though they only used paper plates and plastic. Unusual, since many hotels have trays for this purpose and they use ceramic and metal utensils. All in all the hotel is exactly what one would expect from a good roadside hotel, nothing outstanding, but nothing to unexpected either.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1595102-r510980640-Fairfield_Inn_Suites_Houston_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>510980640</t>
+  </si>
+  <si>
+    <t>08/10/2017</t>
+  </si>
+  <si>
+    <t>The hotel itself was great, area not as nice</t>
+  </si>
+  <si>
+    <t>So we stayed here the night before we left on a Western Carribean cruise.  We picked the hotel mostly because it was on the lowest points tier for Marriott (my mother in law is a member).  The hotel itself is nice, the rooms are very comfortable and spacious, there is a laundry facility on site (came in handy), the staff was courteous and pleasant, etc.  However, it's in a not so nice area.  I had to run to run get dinner late and go to Wal-Mart for last minute items.  I couldn't leave the back entrance because there was a posted security guard for the whole night.  As I ran these errands, I never felt threatened, but as I drove the neighborhood, I did feel uneasy and the houses had barred windows, Wal-Mart had a heavy security presence, etc.  I think if you were there early and didn't leave the hotel at night or you are more comfortable in an urban setting (we are from a small town), it would be just fine.  Great value if you are using Marriott points.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Arturo C, General Manager at Fairfield Inn &amp; Suites Houston Channelview, responded to this reviewResponded August 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 11, 2017</t>
+  </si>
+  <si>
+    <t>So we stayed here the night before we left on a Western Carribean cruise.  We picked the hotel mostly because it was on the lowest points tier for Marriott (my mother in law is a member).  The hotel itself is nice, the rooms are very comfortable and spacious, there is a laundry facility on site (came in handy), the staff was courteous and pleasant, etc.  However, it's in a not so nice area.  I had to run to run get dinner late and go to Wal-Mart for last minute items.  I couldn't leave the back entrance because there was a posted security guard for the whole night.  As I ran these errands, I never felt threatened, but as I drove the neighborhood, I did feel uneasy and the houses had barred windows, Wal-Mart had a heavy security presence, etc.  I think if you were there early and didn't leave the hotel at night or you are more comfortable in an urban setting (we are from a small town), it would be just fine.  Great value if you are using Marriott points.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1595102-r473109187-Fairfield_Inn_Suites_Houston_Channelview-Channelview_Texas.html</t>
   </si>
   <si>
-    <t>55609</t>
-  </si>
-  <si>
-    <t>1595102</t>
-  </si>
-  <si>
     <t>473109187</t>
   </si>
   <si>
@@ -204,9 +264,6 @@
     <t>Spent one this past weekend. I had a room on the first floor. The king room was very spacious and the bed was super comfy. I was told that no one could see inside the room but I still would prefer to be able to close the curtains bc there was always light in the room. Not to mention i could see everybody walking by. There were plenty of plush pillows and there were a lot of movie channels to choose from. There was excellent water pressure and the water stayed very hot. There lemon hand lotion was the best. A minor complaint was that the toilet seat was off track bc every time we sat down it shifted and the vent did not work. Breakfast was your standard continental breakfast. If the hotel is crowded expect a long line for the waffles. The hotel is in a good location right off the highway and there is a McDonald and convenience store you can walk to if you're the walking type. MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Arturo C, General Manager at Fairfield Inn &amp; Suites Houston Channelview, responded to this reviewResponded April 6, 2017</t>
   </si>
   <si>
@@ -246,6 +303,60 @@
     <t>The front desk clerk was friendly and accommodating. The room was fairly comfortable.  Was good to have a working ac.   I had to go to another floor to find a working ice machine  (not the first hotel this has occurred).  More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1595102-r440676099-Fairfield_Inn_Suites_Houston_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>440676099</t>
+  </si>
+  <si>
+    <t>11/28/2016</t>
+  </si>
+  <si>
+    <t>Acceptable place to stop and rest</t>
+  </si>
+  <si>
+    <t>This hotel was fine overall, but there were a couple of issues for me.  The room was musty, and just did not smell clean to me.  Also, the elevator was almost nauseating with its overwhelming air freshener smell.  I looked up and saw two Christmas tree air fresheners stuck above the elevator lights in the ceiling.  I had to wonder what smell was worse than that:  did someone throw up in there or something?  Yikes.  The room was comfortable, though, and we got a decent night's sleep there.  The hotel is right off of the interstate, so noise could be a factor.  For breakfast, we had make your own waffles, which were really good.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Arturo C, General Manager at Fairfield Inn &amp; Suites Houston Channelview, responded to this reviewResponded November 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 30, 2016</t>
+  </si>
+  <si>
+    <t>This hotel was fine overall, but there were a couple of issues for me.  The room was musty, and just did not smell clean to me.  Also, the elevator was almost nauseating with its overwhelming air freshener smell.  I looked up and saw two Christmas tree air fresheners stuck above the elevator lights in the ceiling.  I had to wonder what smell was worse than that:  did someone throw up in there or something?  Yikes.  The room was comfortable, though, and we got a decent night's sleep there.  The hotel is right off of the interstate, so noise could be a factor.  For breakfast, we had make your own waffles, which were really good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1595102-r436204385-Fairfield_Inn_Suites_Houston_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>436204385</t>
+  </si>
+  <si>
+    <t>11/10/2016</t>
+  </si>
+  <si>
+    <t>Great room and service</t>
+  </si>
+  <si>
+    <t>Full disclosure - I am a Marriott Premium member.First, I'd like to point out the excellent service that I received on this business trip from Jazz, Jacob and the General Manager, Arturo.  Thank you all for a wonderful stay.  Also, this is the first Fairfield Inn that I have ever visited that offered a "Happy Hour."  (Tuesday/Wednesday nights, beer/wine, soft drinks and light snacks).  Thanks!The room was clean and fresh upon arrival.  The wall-mounted HVAC controls kept the room comfortable throughout the day, though I had some difficulty in getting the temperature "just right" for sleeping. The wall-mounted HVAC unit was efficient and quiet.  Likewise the room was pretty quiet as well, even with the noise of I-10 nearby.  Great hotel construction.  Electricity near the bed was at a premium, so I employed my #1 Hotel Hack, a three-plug adapter. The internet was fast and stable.  I was easily able to stream Amazon video and use Google Video Hangouts for business meetings.  (Those using a VPN may experience degraded behavior with Amazon video though).It looks as though they are about to start a lobby remodeling project - call ahead if you think that might bother you.All in all - a great place, near my client (about 15 minutes). I will certainly add this hotel to my Marriott Favorites to come to again when visiting my Houston clients.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Arturo C, General Manager at Fairfield Inn &amp; Suites Houston Channelview, responded to this reviewResponded December 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 4, 2016</t>
+  </si>
+  <si>
+    <t>Full disclosure - I am a Marriott Premium member.First, I'd like to point out the excellent service that I received on this business trip from Jazz, Jacob and the General Manager, Arturo.  Thank you all for a wonderful stay.  Also, this is the first Fairfield Inn that I have ever visited that offered a "Happy Hour."  (Tuesday/Wednesday nights, beer/wine, soft drinks and light snacks).  Thanks!The room was clean and fresh upon arrival.  The wall-mounted HVAC controls kept the room comfortable throughout the day, though I had some difficulty in getting the temperature "just right" for sleeping. The wall-mounted HVAC unit was efficient and quiet.  Likewise the room was pretty quiet as well, even with the noise of I-10 nearby.  Great hotel construction.  Electricity near the bed was at a premium, so I employed my #1 Hotel Hack, a three-plug adapter. The internet was fast and stable.  I was easily able to stream Amazon video and use Google Video Hangouts for business meetings.  (Those using a VPN may experience degraded behavior with Amazon video though).It looks as though they are about to start a lobby remodeling project - call ahead if you think that might bother you.All in all - a great place, near my client (about 15 minutes). I will certainly add this hotel to my Marriott Favorites to come to again when visiting my Houston clients.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1595102-r389860853-Fairfield_Inn_Suites_Houston_Channelview-Channelview_Texas.html</t>
   </si>
   <si>
@@ -291,9 +402,6 @@
     <t>April 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>Arturo C, General Manager at Fairfield Inn &amp; Suites Houston Channelview, responded to this reviewResponded May 3, 2016</t>
   </si>
   <si>
@@ -321,6 +429,48 @@
     <t>Stayed with my family at this hotel for a few nights.We had a great experience! The hotel was clean inside and out. The room was neat with everything we needed. The beds and pillows were comfortable.The staff was friendly and helpful.The breakfast was also great! I have no complaints about this hotel!Totally recommend this place!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1595102-r367958532-Fairfield_Inn_Suites_Houston_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>367958532</t>
+  </si>
+  <si>
+    <t>Great overall experience!</t>
+  </si>
+  <si>
+    <t>The room was very nice and clean. The staff was very friendly and courteous. Seems like even the staff is happy to work there. This Fairfield Inn is one of the best I have stayed in. Overall great experience staying here!MoreShow less</t>
+  </si>
+  <si>
+    <t>The room was very nice and clean. The staff was very friendly and courteous. Seems like even the staff is happy to work there. This Fairfield Inn is one of the best I have stayed in. Overall great experience staying here!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1595102-r365799291-Fairfield_Inn_Suites_Houston_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>365799291</t>
+  </si>
+  <si>
+    <t>04/20/2016</t>
+  </si>
+  <si>
+    <t>Nice Hotel in Sketchy Area</t>
+  </si>
+  <si>
+    <t>Channelview is an ugly city. Period. It's really just a collection of refineries and industrial areas from what I could tell.  We stayed here the day before disembarking on a cruise out of the Port of Houston. The hotel was nice, clean and the staff was friendly. The problem were the numbers of seemingly homeless and beggars wandering around the parking lot and on nearby streets. Nothing outside the hotel seemed particularly safe. Next time I'll avoid Channelview altogether and stay in another area.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Arturo C, General Manager at Fairfield Inn &amp; Suites Houston Channelview, responded to this reviewResponded April 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 22, 2016</t>
+  </si>
+  <si>
+    <t>Channelview is an ugly city. Period. It's really just a collection of refineries and industrial areas from what I could tell.  We stayed here the day before disembarking on a cruise out of the Port of Houston. The hotel was nice, clean and the staff was friendly. The problem were the numbers of seemingly homeless and beggars wandering around the parking lot and on nearby streets. Nothing outside the hotel seemed particularly safe. Next time I'll avoid Channelview altogether and stay in another area.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1595102-r357302559-Fairfield_Inn_Suites_Houston_Channelview-Channelview_Texas.html</t>
   </si>
   <si>
@@ -336,9 +486,6 @@
     <t>This is an amazing Marriott property near Houston Hobby airport. We visited in March with family to see Galveston . The hotel is really clean , lobby is superb , Carpets are really beautiful . Rooms are really good , we stayed in king suite which had all the amenities one expect. Breakfast buffet is good but if you are vegan . It's limited.Overall our stay was very good at this property . Really recommend this hotel to everyone.MoreShow less</t>
   </si>
   <si>
-    <t>March 2016</t>
-  </si>
-  <si>
     <t>Arturo C, General Manager at Fairfield Inn &amp; Suites Houston Channelview, responded to this reviewResponded March 29, 2016</t>
   </si>
   <si>
@@ -393,6 +540,60 @@
     <t>My father and I were traveling and needed a nice place to sleep.  We were greeted by a really friendly staff member when we arrived. She checked us in quickly even though we didn't have a reservation and sent us to our room.  The room was spotless and extremely clean bathroom, the temperature of the room was perfect when we arrived.  The next morning we were leaving early and a male staff member put out the breakfast food for us early to accommodate our early departure.  My dad commented in the vehicle, those were the nicest people I've ever met at that hotel, someone trained them right.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1595102-r310341826-Fairfield_Inn_Suites_Houston_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>310341826</t>
+  </si>
+  <si>
+    <t>09/14/2015</t>
+  </si>
+  <si>
+    <t>Extended stay</t>
+  </si>
+  <si>
+    <t>Pleased again in 2015 with clean lobby and cool staff. Room was very clean and deodorized. Pool was clean and the landscape . Breakfast was on time and served scrambled eggs and quartered potatoes and biscuits , muffins, bagels,apples,bananas,4 cereals,oatmeal and bread and bacon. Neat . Still have fax and computer in lobby. TV has several stations if stuck for a rainy day. Refrig and microwave n room also coffee. Outlet in room to plug computer in.  Happy stayMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Arturo C, General Manager at Fairfield Inn &amp; Suites Houston Channelview, responded to this reviewResponded September 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 17, 2015</t>
+  </si>
+  <si>
+    <t>Pleased again in 2015 with clean lobby and cool staff. Room was very clean and deodorized. Pool was clean and the landscape . Breakfast was on time and served scrambled eggs and quartered potatoes and biscuits , muffins, bagels,apples,bananas,4 cereals,oatmeal and bread and bacon. Neat . Still have fax and computer in lobby. TV has several stations if stuck for a rainy day. Refrig and microwave n room also coffee. Outlet in room to plug computer in.  Happy stayMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1595102-r301555539-Fairfield_Inn_Suites_Houston_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>301555539</t>
+  </si>
+  <si>
+    <t>08/20/2015</t>
+  </si>
+  <si>
+    <t>Good hotel not so good location</t>
+  </si>
+  <si>
+    <t>Rooms-Very spacious but not very clean, 2 pillows had what appeared to be blood on them.  It makes you wonder if any of the bedding was washed?  Toilet seat was dirty.  Not a great first impression of the room.Breakfast-The first morning I just had cereal, after eating it I noticed the milk had expired 2 days before.  Went to the fridge and all the milk was expired, gross.Pool-Pool was very nice to get away from the heat but was very small to do any actual swimming, it was a little strange.Staff-AdequateLocation-If you need to be in this area for work it is a good location but otherwise I would not stay here, the area is not very nice.  Next time I will stay closer to Houston and drive out to work.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Arturo C, General Manager at Fairfield Inn &amp; Suites Houston Channelview, responded to this reviewResponded September 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 16, 2015</t>
+  </si>
+  <si>
+    <t>Rooms-Very spacious but not very clean, 2 pillows had what appeared to be blood on them.  It makes you wonder if any of the bedding was washed?  Toilet seat was dirty.  Not a great first impression of the room.Breakfast-The first morning I just had cereal, after eating it I noticed the milk had expired 2 days before.  Went to the fridge and all the milk was expired, gross.Pool-Pool was very nice to get away from the heat but was very small to do any actual swimming, it was a little strange.Staff-AdequateLocation-If you need to be in this area for work it is a good location but otherwise I would not stay here, the area is not very nice.  Next time I will stay closer to Houston and drive out to work.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1595102-r292435998-Fairfield_Inn_Suites_Houston_Channelview-Channelview_Texas.html</t>
   </si>
   <si>
@@ -435,9 +636,6 @@
     <t>Great place to stay, and location was great. The Breakfast  was good loved it and fresh fruit, clean area. The room was clean and fresh, bathroom clean. The front desk clerks were great and off the chain happy, loved the spirit. Thanks to them for saving my weekend. Take a lession from ((Channelview, a great location). Fairfield Inn &amp; Suites Houston Hobby Airport ( this Hobby location really can learn fron the staff at Channelview.) Make sure you check your reverasation at Hobby before you go........MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>Arturo C, General Manager at Fairfield Inn &amp; Suites Houston Channelview, responded to this reviewResponded July 8, 2015</t>
   </si>
   <si>
@@ -474,6 +672,57 @@
     <t>Had to be at a customer site for several days, which was about 1.5 miles from the hotel.  Checked in during Tropical Storm Bill and enjoyed it for essentially the entire stay, which left little time to explore the area.  That said, on two lunch drives nearby it was pretty apparent this was easily the BEST hotel choice in this area!  And given the storm, it was VERY nice to have the evening reception to fall back on for dinner!My room was very spacious and clean, and the halls and lobby were equally well-maintained.  ALL staff I interacted with were extremely pleasant.  If business opportunity goes well, I'll be back again, and won't hesitate to stay here.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1595102-r273693902-Fairfield_Inn_Suites_Houston_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>273693902</t>
+  </si>
+  <si>
+    <t>05/21/2015</t>
+  </si>
+  <si>
+    <t>Thank you!</t>
+  </si>
+  <si>
+    <t>Another stop on our return route back to Virginia from the Grand Canyon.  And what a welcome stop it was!  It was a Sunday, planned travel for that day knowing we would be tackling San Antonio, thinking Sunday wouldn't be as busy - I was a wreck by the time we got through the chaos of it all!  Decided to go on with grim determination and get through Houston or have nightmares about Monday travel - but turned out Houston was much more "driver friendly".  We were both pretty exhausted.  Stopped for gas somewhere close by this hotel, all we could see was a Motel 8 and some other no-name place, decided to backtrack as I'd spotted a Holiday Inn - we took the slip road in to what we thought was the entrance, only to find no entrance (don't ask) and on a one way.  continued on, spitting rain, spotted the Fairfield Inn.  What a wonderful find for the night.  Fabulous, cheerful room  ($109 total) - I was never so happy to be somewhere clean and soft and comfortable.  Very nice staff and great breakfast.  Thank you Fairfield Inn - you were the light at the end of the tunnel.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Arturo C, General Manager at Fairfield Inn &amp; Suites Houston Channelview, responded to this reviewResponded May 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 27, 2015</t>
+  </si>
+  <si>
+    <t>Another stop on our return route back to Virginia from the Grand Canyon.  And what a welcome stop it was!  It was a Sunday, planned travel for that day knowing we would be tackling San Antonio, thinking Sunday wouldn't be as busy - I was a wreck by the time we got through the chaos of it all!  Decided to go on with grim determination and get through Houston or have nightmares about Monday travel - but turned out Houston was much more "driver friendly".  We were both pretty exhausted.  Stopped for gas somewhere close by this hotel, all we could see was a Motel 8 and some other no-name place, decided to backtrack as I'd spotted a Holiday Inn - we took the slip road in to what we thought was the entrance, only to find no entrance (don't ask) and on a one way.  continued on, spitting rain, spotted the Fairfield Inn.  What a wonderful find for the night.  Fabulous, cheerful room  ($109 total) - I was never so happy to be somewhere clean and soft and comfortable.  Very nice staff and great breakfast.  Thank you Fairfield Inn - you were the light at the end of the tunnel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1595102-r267503952-Fairfield_Inn_Suites_Houston_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>267503952</t>
+  </si>
+  <si>
+    <t>04/23/2015</t>
+  </si>
+  <si>
+    <t>Best Option in Area</t>
+  </si>
+  <si>
+    <t>Many choices in the area but most a cheap, run down, and scary.  This hotel seems like the exception as it is fairly new, clean, well maintained and in a good location.  Rooms were very large and comfortable.  Breakfast was OK and on par with what you expect from their competition.  Evening reception was pretty good and a nice touch.  Pool area looked nice again for this level and vs. competition.  Friendly staff too.  I would stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Arturo C, General Manager at Fairfield Inn &amp; Suites Houston Channelview, responded to this reviewResponded April 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 27, 2015</t>
+  </si>
+  <si>
+    <t>Many choices in the area but most a cheap, run down, and scary.  This hotel seems like the exception as it is fairly new, clean, well maintained and in a good location.  Rooms were very large and comfortable.  Breakfast was OK and on par with what you expect from their competition.  Evening reception was pretty good and a nice touch.  Pool area looked nice again for this level and vs. competition.  Friendly staff too.  I would stay there again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1595102-r263077612-Fairfield_Inn_Suites_Houston_Channelview-Channelview_Texas.html</t>
   </si>
   <si>
@@ -489,9 +738,6 @@
     <t>This hotel offers a fair location right off the highway.  Nightly security as with most of the Houston hotels.  Offers a reception. I checked in at 3am. While doing so I was told they don't offer complimentary goodie bags for gold or higher members and those bags are made up per location.  Not true from what I've experienced at every other Marriott property. Breakfast is not long enough and both opens to late and closes too early. As with many of the area hotels breakfast hours are poor. 630am to 9am mf 7am to 930am sat sun. Most other chains outside this area offer 6am to 10 and 630am to 10 weekends. MoreShow less</t>
   </si>
   <si>
-    <t>April 2015</t>
-  </si>
-  <si>
     <t>Arturo C, General Manager at Fairfield Inn &amp; Suites Houston Channelview, responded to this reviewResponded April 3, 2015</t>
   </si>
   <si>
@@ -555,6 +801,60 @@
     <t>Had to stay here for a business trip.  Very good hotel.  Rooms were clean as was the whole hotel.  Breakfast was served promptly at 6 am every morning and there was a wide selection of both hot and cold foods.  The staff was always friendly and professional.  There is a small exercise room- two treadmills, one elliptical and some free weights &amp; bench.  Small pool which would probably get crowded given its size vs. the capacity of the hotel.  I would definitely stay there again.  In fact I probably will be in a couple of weeks!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1595102-r237291345-Fairfield_Inn_Suites_Houston_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>237291345</t>
+  </si>
+  <si>
+    <t>10/31/2014</t>
+  </si>
+  <si>
+    <t>Excellent business/family hotel</t>
+  </si>
+  <si>
+    <t>Well located if you are for business related to refineries in Houston/Channelview. Easy road access, excellent breakfast, clean and large size rooms. Personnel is very kind. Overall a very good hotel for business where you can also bring your family.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Arturo C, Manager at Fairfield Inn &amp; Suites Houston Channelview, responded to this reviewResponded November 13, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 13, 2014</t>
+  </si>
+  <si>
+    <t>Well located if you are for business related to refineries in Houston/Channelview. Easy road access, excellent breakfast, clean and large size rooms. Personnel is very kind. Overall a very good hotel for business where you can also bring your family.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1595102-r225051875-Fairfield_Inn_Suites_Houston_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>225051875</t>
+  </si>
+  <si>
+    <t>08/28/2014</t>
+  </si>
+  <si>
+    <t>Stay</t>
+  </si>
+  <si>
+    <t>I was on a family trip just passing through and I've stayed in many hotels but this stay was awesome! The staff was friendly from the front desk to the housekeepers. They were very attentive and the rooms were very clean. I would highly recommend this hotel to my friends and family.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Arturo C, General Manager at Fairfield Inn &amp; Suites Houston Channelview, responded to this reviewResponded September 2, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 2, 2014</t>
+  </si>
+  <si>
+    <t>I was on a family trip just passing through and I've stayed in many hotels but this stay was awesome! The staff was friendly from the front desk to the housekeepers. They were very attentive and the rooms were very clean. I would highly recommend this hotel to my friends and family.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1595102-r211580511-Fairfield_Inn_Suites_Houston_Channelview-Channelview_Texas.html</t>
   </si>
   <si>
@@ -633,6 +933,57 @@
     <t>This is a nice clean hotel, but is not in the best neighborhood nor near any restaurants other than a few run down fast food restaurants. We would not really recommend this location based on the above. This is not a location where you can feel comfortable leaving your car parked in the parking lot overnight.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1595102-r200345993-Fairfield_Inn_Suites_Houston_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>200345993</t>
+  </si>
+  <si>
+    <t>04/08/2014</t>
+  </si>
+  <si>
+    <t>Place to stay on SE Houston corridor</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel on two occasions for about 2 weeks combined trips. Convenient to my work location on Wallisville road - trucking central -  and easy access to highway 10 (hotel on frontage road). Walk to McDonalds and Wendy's but not much else. Restaurant row and Wal Mart 10 min drive. Internet works great, good breakfast selections, clean rooms, might want to ask for a room on the south side of the hotel to reduce the highway noise.MoreShow less</t>
+  </si>
+  <si>
+    <t>Arturo C, General Manager at Fairfield Inn &amp; Suites Houston Channelview, responded to this reviewResponded April 22, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 22, 2014</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel on two occasions for about 2 weeks combined trips. Convenient to my work location on Wallisville road - trucking central -  and easy access to highway 10 (hotel on frontage road). Walk to McDonalds and Wendy's but not much else. Restaurant row and Wal Mart 10 min drive. Internet works great, good breakfast selections, clean rooms, might want to ask for a room on the south side of the hotel to reduce the highway noise.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1595102-r194473014-Fairfield_Inn_Suites_Houston_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>194473014</t>
+  </si>
+  <si>
+    <t>02/17/2014</t>
+  </si>
+  <si>
+    <t>Luxury service</t>
+  </si>
+  <si>
+    <t>The breakfast service was excellent for Nancy Olguin and manager Arturo Canales always helpful and very professional, note that the same check service rooms.everything is very clean and the employees have excellent presentation. back to houston if this hotel would be my choice againMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>Arturo C, General Manager at Fairfield Inn &amp; Suites Houston Channelview, responded to this reviewResponded February 19, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 19, 2014</t>
+  </si>
+  <si>
+    <t>The breakfast service was excellent for Nancy Olguin and manager Arturo Canales always helpful and very professional, note that the same check service rooms.everything is very clean and the employees have excellent presentation. back to houston if this hotel would be my choice againMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1595102-r186093351-Fairfield_Inn_Suites_Houston_Channelview-Channelview_Texas.html</t>
   </si>
   <si>
@@ -708,6 +1059,45 @@
     <t>All I can say is you can't go wrong..the location is great..plenty of shopping and restaurants close by..right next to highway..but it didn't bother us at all..we slept well ..no noise..it is beautifully decorated and super clean..the rooms are also well decorated and spacious..free breakfast is a plus and it has something for everyone..totally recommend..More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1595102-r165944396-Fairfield_Inn_Suites_Houston_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>165944396</t>
+  </si>
+  <si>
+    <t>07/01/2013</t>
+  </si>
+  <si>
+    <t>Great property and staff...location could be better</t>
+  </si>
+  <si>
+    <t>Stayed three nights at this hotel and was very happy overall with it. It is a little out of the way for those wanting to be near downtown Houston and traffic can be a major issue if you are travelling with the normal rush. The property itself was very clean and well maintained...among the best I've stayed at. The staff was always helpful and greeted me each time I went through the lobby. Exercise room and equipment was in top notch condition which I find rare even in good hotels.Major downsides are how close the hotel is to the highway and the local area feels run-down. Having said that once I was in the room I did not really notice the traffic noise unless I was paying attention and it may just be that the area is older.Would recommend staying here if the location meets your needs.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>Stayed three nights at this hotel and was very happy overall with it. It is a little out of the way for those wanting to be near downtown Houston and traffic can be a major issue if you are travelling with the normal rush. The property itself was very clean and well maintained...among the best I've stayed at. The staff was always helpful and greeted me each time I went through the lobby. Exercise room and equipment was in top notch condition which I find rare even in good hotels.Major downsides are how close the hotel is to the highway and the local area feels run-down. Having said that once I was in the room I did not really notice the traffic noise unless I was paying attention and it may just be that the area is older.Would recommend staying here if the location meets your needs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1595102-r160940294-Fairfield_Inn_Suites_Houston_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>160940294</t>
+  </si>
+  <si>
+    <t>05/16/2013</t>
+  </si>
+  <si>
+    <t>Very nice property</t>
+  </si>
+  <si>
+    <t>Stayed at this property for OTC which was at Reliant Arena. This was a bit out of the way, but the tradeshow was huge and hotels throughout the city was booked. This hotel had very friendly staff and it looks brand new (it has been opened for three years). A McDonald's is within walking distance and there are plenty of restaurants on the frontage roads in both directions of the hotel.</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1595102-r142410912-Fairfield_Inn_Suites_Houston_Channelview-Channelview_Texas.html</t>
   </si>
   <si>
@@ -769,6 +1159,45 @@
   </si>
   <si>
     <t>We first stayed here about a couple of years ago and it seemed the hotel wasbrand new then.  We are very impressed with the maintenance of  the property and the friendly, welcoming staff.  The hotel is not located in an attractive area, but I'm sure it's in a strategic place for the owners or they would not have built it here.  It is very convenient for us when visiting relatives about 3 miles away.We stayed on a Saturday night in November and there were very few guests, so that worked to our favor as far as having a quiet stay.  The rooms are very attractive and huge, clean, great bedding, and a very nice breakfast.  You will not be disappointed.The only suggestion I would have for management is to place a bell on the front desk ...soguests can summon a clerk from the back area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1595102-r119562791-Fairfield_Inn_Suites_Houston_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>119562791</t>
+  </si>
+  <si>
+    <t>10/21/2011</t>
+  </si>
+  <si>
+    <t>Fantastic Hotel</t>
+  </si>
+  <si>
+    <t>My stay at this hotel was great.  Although the Fairfield Inn is Marriott's budget-minded chain, you won't find much "budget" about the attractive decor in this nearly-new hotel.  The property is spotless and well maintained, like new really.  Breakfast was uncrowded each day throughout my stay (sometimes I was the only one there).  The parking lot is well-lit and secure.  The room I had was the best part - huge and spacious, functional, and comfortable.  Two HDTV sets with a few HD channels, plus mini fridge and microwave.  A large bathroom with plenty of counterspace.  The A/C kept the room nice and cool.  I didn't use the outdoor pool, so I can't comment on that.  My only complaint - the wireless internet was really slow, but not to the point of being unusable.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>My stay at this hotel was great.  Although the Fairfield Inn is Marriott's budget-minded chain, you won't find much "budget" about the attractive decor in this nearly-new hotel.  The property is spotless and well maintained, like new really.  Breakfast was uncrowded each day throughout my stay (sometimes I was the only one there).  The parking lot is well-lit and secure.  The room I had was the best part - huge and spacious, functional, and comfortable.  Two HDTV sets with a few HD channels, plus mini fridge and microwave.  A large bathroom with plenty of counterspace.  The A/C kept the room nice and cool.  I didn't use the outdoor pool, so I can't comment on that.  My only complaint - the wireless internet was really slow, but not to the point of being unusable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1595102-r118595897-Fairfield_Inn_Suites_Houston_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>118595897</t>
+  </si>
+  <si>
+    <t>09/26/2011</t>
+  </si>
+  <si>
+    <t>nice hotel</t>
+  </si>
+  <si>
+    <t>The hotel is new. The rooms are very big and comfortable, in one side there is the sofà  with flat screen and a desk, on the other side ther is the bed with onother flat screen.The breakfast is the typical one on the fairfield Inn. Very nice the Happy hour from 5-7pm on tuesday and wednday afternnoon offered by the hotel. I would not suggest the area, but if for any reason you need to stay in channelview I will suggest the hotel.</t>
+  </si>
+  <si>
+    <t>September 2011</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1595102-r116002166-Fairfield_Inn_Suites_Houston_Channelview-Channelview_Texas.html</t>
@@ -1360,7 +1789,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1369,11 +1798,13 @@
         <v>53</v>
       </c>
       <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
-      <c r="S2" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q2" t="n">
+        <v>4</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
         <v>4</v>
@@ -1428,28 +1859,34 @@
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>3</v>
+      </c>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="X3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
@@ -1465,7 +1902,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -1474,43 +1911,47 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
+      <c r="S4" t="n">
+        <v>3</v>
+      </c>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
@@ -1526,7 +1967,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1535,25 +1976,25 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="O5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1608,7 +2049,7 @@
         <v>89</v>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N6" t="s">
         <v>90</v>
@@ -1669,31 +2110,35 @@
         <v>99</v>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="O7" t="s">
-        <v>62</v>
-      </c>
-      <c r="P7" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
       <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="X7" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="Y7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8">
@@ -1709,7 +2154,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -1718,30 +2163,30 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="J8" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="K8" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="L8" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="O8" t="s">
-        <v>62</v>
-      </c>
-      <c r="P8" t="s"/>
-      <c r="Q8" t="n">
-        <v>5</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
@@ -1752,13 +2197,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="X8" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Y8" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9">
@@ -1774,7 +2219,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -1783,25 +2228,25 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="J9" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="L9" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="O9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1813,13 +2258,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="X9" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Y9" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10">
@@ -1835,7 +2280,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -1844,49 +2289,43 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="J10" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="K10" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="L10" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="O10" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="P10" t="s"/>
-      <c r="Q10" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
-      <c r="S10" t="n">
-        <v>5</v>
-      </c>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>5</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="X10" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="Y10" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11">
@@ -1902,7 +2341,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -1911,25 +2350,25 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="J11" t="s">
+        <v>133</v>
+      </c>
+      <c r="K11" t="s">
+        <v>134</v>
+      </c>
+      <c r="L11" t="s">
+        <v>135</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
         <v>127</v>
       </c>
-      <c r="K11" t="s">
-        <v>128</v>
-      </c>
-      <c r="L11" t="s">
-        <v>129</v>
-      </c>
-      <c r="M11" t="n">
-        <v>3</v>
-      </c>
-      <c r="N11" t="s">
-        <v>130</v>
-      </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1941,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="X11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="Y11" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12">
@@ -1963,7 +2402,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -1972,34 +2411,30 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K12" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="O12" t="s">
-        <v>139</v>
+        <v>73</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
-      <c r="R12" t="n">
-        <v>5</v>
-      </c>
-      <c r="S12" t="n">
-        <v>5</v>
-      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
         <v>5</v>
@@ -2008,13 +2443,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="X12" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y12" t="s">
         <v>141</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="13">
@@ -2030,7 +2465,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2039,25 +2474,25 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
+        <v>143</v>
+      </c>
+      <c r="J13" t="s">
         <v>144</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>145</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>146</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
         <v>147</v>
       </c>
-      <c r="M13" t="n">
-        <v>4</v>
-      </c>
-      <c r="N13" t="s">
-        <v>148</v>
-      </c>
       <c r="O13" t="s">
-        <v>139</v>
+        <v>63</v>
       </c>
       <c r="P13" t="n">
         <v>4</v>
@@ -2065,23 +2500,23 @@
       <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
       <c r="S13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
+        <v>148</v>
+      </c>
+      <c r="X13" t="s">
         <v>149</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>150</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="14">
@@ -2097,7 +2532,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2106,43 +2541,47 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
+        <v>152</v>
+      </c>
+      <c r="J14" t="s">
         <v>153</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>154</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>155</v>
       </c>
-      <c r="L14" t="s">
-        <v>156</v>
-      </c>
       <c r="M14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="O14" t="s">
-        <v>139</v>
+        <v>63</v>
       </c>
       <c r="P14" t="s"/>
-      <c r="Q14" t="s"/>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
       <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
+        <v>156</v>
+      </c>
+      <c r="X14" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y14" t="s">
         <v>158</v>
-      </c>
-      <c r="X14" t="s">
-        <v>159</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="15">
@@ -2158,7 +2597,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2167,49 +2606,43 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J15" t="s">
+        <v>161</v>
+      </c>
+      <c r="K15" t="s">
         <v>162</v>
       </c>
-      <c r="J15" t="s">
+      <c r="L15" t="s">
         <v>163</v>
       </c>
-      <c r="K15" t="s">
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
         <v>164</v>
       </c>
-      <c r="L15" t="s">
-        <v>165</v>
-      </c>
-      <c r="M15" t="n">
-        <v>5</v>
-      </c>
-      <c r="N15" t="s">
-        <v>166</v>
-      </c>
       <c r="O15" t="s">
-        <v>139</v>
+        <v>63</v>
       </c>
       <c r="P15" t="s"/>
-      <c r="Q15" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
-      <c r="S15" t="n">
-        <v>5</v>
-      </c>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>5</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
+        <v>165</v>
+      </c>
+      <c r="X15" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y15" t="s">
         <v>167</v>
-      </c>
-      <c r="X15" t="s">
-        <v>168</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="16">
@@ -2225,7 +2658,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2234,32 +2667,34 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
+        <v>169</v>
+      </c>
+      <c r="J16" t="s">
+        <v>161</v>
+      </c>
+      <c r="K16" t="s">
+        <v>170</v>
+      </c>
+      <c r="L16" t="s">
         <v>171</v>
       </c>
-      <c r="J16" t="s">
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
         <v>172</v>
       </c>
-      <c r="K16" t="s">
-        <v>173</v>
-      </c>
-      <c r="L16" t="s">
-        <v>174</v>
-      </c>
-      <c r="M16" t="n">
-        <v>5</v>
-      </c>
-      <c r="N16" t="s">
-        <v>175</v>
-      </c>
       <c r="O16" t="s">
-        <v>139</v>
+        <v>91</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="n">
         <v>5</v>
       </c>
       <c r="R16" t="s"/>
-      <c r="S16" t="s"/>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
         <v>5</v>
@@ -2268,13 +2703,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="X16" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="Y16" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17">
@@ -2290,7 +2725,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2299,53 +2734,43 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="J17" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="K17" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="L17" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="O17" t="s">
-        <v>91</v>
-      </c>
-      <c r="P17" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>5</v>
-      </c>
-      <c r="R17" t="n">
-        <v>5</v>
-      </c>
-      <c r="S17" t="n">
-        <v>5</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>5</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="X17" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="Y17" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18">
@@ -2361,7 +2786,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2370,43 +2795,47 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="J18" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="K18" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="L18" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="M18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="O18" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
-      <c r="S18" t="s"/>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
       <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="X18" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="Y18" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19">
@@ -2422,7 +2851,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2431,53 +2860,43 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="J19" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="K19" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="L19" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="M19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="O19" t="s">
-        <v>91</v>
-      </c>
-      <c r="P19" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>3</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1</v>
-      </c>
-      <c r="S19" t="n">
-        <v>3</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>3</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="X19" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="Y19" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20">
@@ -2493,7 +2912,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2502,28 +2921,28 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J20" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="K20" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L20" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
-      <c r="N20" t="s"/>
-      <c r="O20" t="s"/>
-      <c r="P20" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>5</v>
-      </c>
+      <c r="N20" t="s">
+        <v>197</v>
+      </c>
+      <c r="O20" t="s">
+        <v>109</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
       <c r="R20" t="n">
         <v>5</v>
       </c>
@@ -2538,13 +2957,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="X20" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="Y20" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21">
@@ -2560,7 +2979,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2569,37 +2988,33 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
+        <v>210</v>
+      </c>
+      <c r="J21" t="s">
+        <v>211</v>
+      </c>
+      <c r="K21" t="s">
+        <v>212</v>
+      </c>
+      <c r="L21" t="s">
+        <v>213</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
         <v>214</v>
       </c>
-      <c r="J21" t="s">
-        <v>215</v>
-      </c>
-      <c r="K21" t="s">
-        <v>216</v>
-      </c>
-      <c r="L21" t="s">
-        <v>217</v>
-      </c>
-      <c r="M21" t="n">
-        <v>5</v>
-      </c>
-      <c r="N21" t="s">
-        <v>218</v>
-      </c>
       <c r="O21" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="P21" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>5</v>
-      </c>
-      <c r="R21" t="n">
-        <v>4</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
       <c r="S21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
@@ -2609,13 +3024,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="X21" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="Y21" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22">
@@ -2631,7 +3046,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2640,31 +3055,31 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
+        <v>219</v>
+      </c>
+      <c r="J22" t="s">
+        <v>220</v>
+      </c>
+      <c r="K22" t="s">
+        <v>221</v>
+      </c>
+      <c r="L22" t="s">
+        <v>222</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
         <v>223</v>
       </c>
-      <c r="J22" t="s">
-        <v>224</v>
-      </c>
-      <c r="K22" t="s">
-        <v>225</v>
-      </c>
-      <c r="L22" t="s">
-        <v>226</v>
-      </c>
-      <c r="M22" t="n">
-        <v>5</v>
-      </c>
-      <c r="N22" t="s"/>
-      <c r="O22" t="s"/>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
       <c r="P22" t="n">
         <v>5</v>
       </c>
-      <c r="Q22" t="n">
-        <v>5</v>
-      </c>
-      <c r="R22" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
       <c r="S22" t="n">
         <v>5</v>
       </c>
@@ -2676,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="X22" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="Y22" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23">
@@ -2698,7 +3113,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -2707,49 +3122,47 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
+        <v>228</v>
+      </c>
+      <c r="J23" t="s">
+        <v>229</v>
+      </c>
+      <c r="K23" t="s">
+        <v>230</v>
+      </c>
+      <c r="L23" t="s">
         <v>231</v>
       </c>
-      <c r="J23" t="s">
-        <v>232</v>
-      </c>
-      <c r="K23" t="s">
-        <v>233</v>
-      </c>
-      <c r="L23" t="s">
-        <v>234</v>
-      </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="O23" t="s">
-        <v>91</v>
-      </c>
-      <c r="P23" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>4</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
       <c r="R23" t="n">
-        <v>3</v>
-      </c>
-      <c r="S23" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
+      <c r="W23" t="s">
+        <v>232</v>
+      </c>
+      <c r="X23" t="s">
+        <v>233</v>
+      </c>
       <c r="Y23" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="24">
@@ -2765,7 +3178,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -2774,49 +3187,43 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
+        <v>236</v>
+      </c>
+      <c r="J24" t="s">
+        <v>237</v>
+      </c>
+      <c r="K24" t="s">
         <v>238</v>
       </c>
-      <c r="J24" t="s">
+      <c r="L24" t="s">
         <v>239</v>
       </c>
-      <c r="K24" t="s">
-        <v>240</v>
-      </c>
-      <c r="L24" t="s">
-        <v>241</v>
-      </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="O24" t="s">
-        <v>139</v>
-      </c>
-      <c r="P24" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>4</v>
-      </c>
-      <c r="R24" t="n">
-        <v>4</v>
-      </c>
-      <c r="S24" t="n">
-        <v>5</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>4</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
+      <c r="W24" t="s">
+        <v>240</v>
+      </c>
+      <c r="X24" t="s">
+        <v>241</v>
+      </c>
       <c r="Y24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="25">
@@ -2832,7 +3239,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -2841,49 +3248,49 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
+        <v>244</v>
+      </c>
+      <c r="J25" t="s">
         <v>245</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>246</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>247</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
         <v>248</v>
       </c>
-      <c r="M25" t="n">
-        <v>5</v>
-      </c>
-      <c r="N25" t="s">
-        <v>249</v>
-      </c>
       <c r="O25" t="s">
-        <v>91</v>
-      </c>
-      <c r="P25" t="n">
-        <v>4</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="P25" t="s"/>
       <c r="Q25" t="n">
         <v>5</v>
       </c>
-      <c r="R25" t="n">
-        <v>2</v>
-      </c>
+      <c r="R25" t="s"/>
       <c r="S25" t="n">
         <v>5</v>
       </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
+      <c r="W25" t="s">
+        <v>249</v>
+      </c>
+      <c r="X25" t="s">
+        <v>250</v>
+      </c>
       <c r="Y25" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26">
@@ -2899,7 +3306,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -2908,34 +3315,32 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J26" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K26" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L26" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
-      <c r="N26" t="s"/>
-      <c r="O26" t="s"/>
-      <c r="P26" t="n">
-        <v>5</v>
-      </c>
+      <c r="N26" t="s">
+        <v>257</v>
+      </c>
+      <c r="O26" t="s">
+        <v>109</v>
+      </c>
+      <c r="P26" t="s"/>
       <c r="Q26" t="n">
         <v>5</v>
       </c>
-      <c r="R26" t="n">
-        <v>5</v>
-      </c>
-      <c r="S26" t="n">
-        <v>5</v>
-      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
         <v>5</v>
@@ -2943,10 +3348,14 @@
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s"/>
-      <c r="X26" t="s"/>
+      <c r="W26" t="s">
+        <v>258</v>
+      </c>
+      <c r="X26" t="s">
+        <v>259</v>
+      </c>
       <c r="Y26" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27">
@@ -2962,7 +3371,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -2971,49 +3380,49 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="J27" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="K27" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="L27" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="O27" t="s">
-        <v>139</v>
+        <v>53</v>
       </c>
       <c r="P27" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q27" t="s"/>
       <c r="R27" t="n">
-        <v>5</v>
-      </c>
-      <c r="S27" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
+      <c r="W27" t="s">
+        <v>267</v>
+      </c>
+      <c r="X27" t="s">
+        <v>268</v>
+      </c>
       <c r="Y27" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
     </row>
     <row r="28">
@@ -3029,7 +3438,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3038,38 +3447,32 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="J28" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="K28" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="L28" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="O28" t="s">
-        <v>62</v>
-      </c>
-      <c r="P28" t="n">
-        <v>5</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P28" t="s"/>
       <c r="Q28" t="n">
         <v>5</v>
       </c>
-      <c r="R28" t="n">
-        <v>5</v>
-      </c>
-      <c r="S28" t="n">
-        <v>5</v>
-      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
         <v>5</v>
@@ -3077,10 +3480,1224 @@
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s"/>
-      <c r="X28" t="s"/>
+      <c r="W28" t="s">
+        <v>276</v>
+      </c>
+      <c r="X28" t="s">
+        <v>277</v>
+      </c>
       <c r="Y28" t="s">
-        <v>269</v>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>60366</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>279</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>280</v>
+      </c>
+      <c r="J29" t="s">
+        <v>281</v>
+      </c>
+      <c r="K29" t="s">
+        <v>282</v>
+      </c>
+      <c r="L29" t="s">
+        <v>283</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>284</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>285</v>
+      </c>
+      <c r="X29" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>60366</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>288</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>289</v>
+      </c>
+      <c r="J30" t="s">
+        <v>290</v>
+      </c>
+      <c r="K30" t="s">
+        <v>291</v>
+      </c>
+      <c r="L30" t="s">
+        <v>292</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>293</v>
+      </c>
+      <c r="O30" t="s">
+        <v>109</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>294</v>
+      </c>
+      <c r="X30" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>60366</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>297</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>298</v>
+      </c>
+      <c r="J31" t="s">
+        <v>299</v>
+      </c>
+      <c r="K31" t="s">
+        <v>300</v>
+      </c>
+      <c r="L31" t="s">
+        <v>301</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="s">
+        <v>293</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>3</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>302</v>
+      </c>
+      <c r="X31" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>60366</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>305</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>306</v>
+      </c>
+      <c r="J32" t="s">
+        <v>307</v>
+      </c>
+      <c r="K32" t="s">
+        <v>308</v>
+      </c>
+      <c r="L32" t="s">
+        <v>309</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s"/>
+      <c r="O32" t="s"/>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>310</v>
+      </c>
+      <c r="X32" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>60366</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>313</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>314</v>
+      </c>
+      <c r="J33" t="s">
+        <v>315</v>
+      </c>
+      <c r="K33" t="s">
+        <v>316</v>
+      </c>
+      <c r="L33" t="s">
+        <v>317</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>318</v>
+      </c>
+      <c r="O33" t="s">
+        <v>73</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>319</v>
+      </c>
+      <c r="X33" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>60366</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>322</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>323</v>
+      </c>
+      <c r="J34" t="s">
+        <v>324</v>
+      </c>
+      <c r="K34" t="s">
+        <v>325</v>
+      </c>
+      <c r="L34" t="s">
+        <v>326</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s"/>
+      <c r="O34" t="s"/>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>327</v>
+      </c>
+      <c r="X34" t="s">
+        <v>328</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>60366</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>330</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>331</v>
+      </c>
+      <c r="J35" t="s">
+        <v>332</v>
+      </c>
+      <c r="K35" t="s">
+        <v>333</v>
+      </c>
+      <c r="L35" t="s">
+        <v>334</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>335</v>
+      </c>
+      <c r="O35" t="s">
+        <v>91</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>336</v>
+      </c>
+      <c r="X35" t="s">
+        <v>337</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>60366</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>339</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>340</v>
+      </c>
+      <c r="J36" t="s">
+        <v>341</v>
+      </c>
+      <c r="K36" t="s">
+        <v>342</v>
+      </c>
+      <c r="L36" t="s">
+        <v>343</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s"/>
+      <c r="O36" t="s"/>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>344</v>
+      </c>
+      <c r="X36" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>60366</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>347</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>348</v>
+      </c>
+      <c r="J37" t="s">
+        <v>349</v>
+      </c>
+      <c r="K37" t="s">
+        <v>350</v>
+      </c>
+      <c r="L37" t="s">
+        <v>351</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>352</v>
+      </c>
+      <c r="O37" t="s">
+        <v>109</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>60366</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>354</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>355</v>
+      </c>
+      <c r="J38" t="s">
+        <v>356</v>
+      </c>
+      <c r="K38" t="s">
+        <v>357</v>
+      </c>
+      <c r="L38" t="s">
+        <v>358</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>359</v>
+      </c>
+      <c r="O38" t="s">
+        <v>109</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>60366</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>360</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>361</v>
+      </c>
+      <c r="J39" t="s">
+        <v>362</v>
+      </c>
+      <c r="K39" t="s">
+        <v>363</v>
+      </c>
+      <c r="L39" t="s">
+        <v>364</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>365</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>4</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>60366</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>367</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>368</v>
+      </c>
+      <c r="J40" t="s">
+        <v>369</v>
+      </c>
+      <c r="K40" t="s">
+        <v>370</v>
+      </c>
+      <c r="L40" t="s">
+        <v>371</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>372</v>
+      </c>
+      <c r="O40" t="s">
+        <v>109</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>60366</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>374</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>375</v>
+      </c>
+      <c r="J41" t="s">
+        <v>376</v>
+      </c>
+      <c r="K41" t="s">
+        <v>377</v>
+      </c>
+      <c r="L41" t="s">
+        <v>378</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>379</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>2</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>60366</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>381</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>382</v>
+      </c>
+      <c r="J42" t="s">
+        <v>383</v>
+      </c>
+      <c r="K42" t="s">
+        <v>384</v>
+      </c>
+      <c r="L42" t="s">
+        <v>385</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>386</v>
+      </c>
+      <c r="O42" t="s">
+        <v>109</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>60366</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>388</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>389</v>
+      </c>
+      <c r="J43" t="s">
+        <v>390</v>
+      </c>
+      <c r="K43" t="s">
+        <v>391</v>
+      </c>
+      <c r="L43" t="s">
+        <v>392</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>393</v>
+      </c>
+      <c r="O43" t="s">
+        <v>109</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>2</v>
+      </c>
+      <c r="S43" t="n">
+        <v>3</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>60366</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>394</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>395</v>
+      </c>
+      <c r="J44" t="s">
+        <v>396</v>
+      </c>
+      <c r="K44" t="s">
+        <v>397</v>
+      </c>
+      <c r="L44" t="s">
+        <v>398</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s"/>
+      <c r="O44" t="s"/>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>60366</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>399</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>400</v>
+      </c>
+      <c r="J45" t="s">
+        <v>401</v>
+      </c>
+      <c r="K45" t="s">
+        <v>402</v>
+      </c>
+      <c r="L45" t="s">
+        <v>403</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>404</v>
+      </c>
+      <c r="O45" t="s">
+        <v>109</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>60366</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>406</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>407</v>
+      </c>
+      <c r="J46" t="s">
+        <v>408</v>
+      </c>
+      <c r="K46" t="s">
+        <v>409</v>
+      </c>
+      <c r="L46" t="s">
+        <v>410</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>411</v>
+      </c>
+      <c r="O46" t="s">
+        <v>63</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>412</v>
       </c>
     </row>
   </sheetData>
